--- a/Doc/카드 프로젝트.xlsx
+++ b/Doc/카드 프로젝트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansol/OneDrive/Project/GitHub/Poker_Ex/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD981741-801E-429B-81E4-33AABF2AC0C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD981741-801E-429B-81E4-33AABF2AC0C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5925" xr2:uid="{88D3AF95-51E3-48DA-91A0-DCE9E447756B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22620" windowHeight="16600" xr2:uid="{88D3AF95-51E3-48DA-91A0-DCE9E447756B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,14 +426,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -472,17 +472,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +498,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -797,39 +797,39 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H13"/>
+      <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="55" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -858,20 +858,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -884,16 +884,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -904,13 +904,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>30</v>
       </c>
@@ -921,16 +921,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -946,12 +946,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
@@ -965,12 +965,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
@@ -984,12 +984,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1003,12 +1003,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
         <v>54</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1050,11 +1050,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" t="s">
         <v>60</v>
       </c>
@@ -1071,13 +1071,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
@@ -1093,13 +1093,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" t="s">
         <v>33</v>
       </c>
@@ -1113,15 +1113,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1140,13 +1140,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
       <c r="F17" t="s">
         <v>34</v>
       </c>
@@ -1163,12 +1163,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="F18" t="s">
         <v>35</v>
       </c>
@@ -1182,12 +1182,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1200,12 +1200,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" t="s">
         <v>78</v>
       </c>
@@ -1222,10 +1222,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1242,12 +1242,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="4"/>
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" t="s">
         <v>80</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
         <v>85</v>
       </c>
@@ -1272,15 +1272,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="99" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="96" x14ac:dyDescent="0.2">
       <c r="E27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
         <v>87</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1296,19 +1296,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E30" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E32" s="2" t="s">
         <v>91</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>13</v>
       </c>
@@ -1326,6 +1326,11 @@
     <sortCondition ref="A20:A30"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="B4:B17"/>
     <mergeCell ref="C4:C15"/>
@@ -1336,11 +1341,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
